--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2250886.473226079</v>
+        <v>2248341.880531796</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>96.86671316392849</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>68.11693918766142</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>64.23476568074719</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39469600159785</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>116.9387179903079</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404939</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425963</v>
+        <v>23.94240680425844</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372557</v>
+        <v>139.4987618372553</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.268785929882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.58082011386775</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246135</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493753</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074824</v>
+        <v>44.3306063007476</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>141.3629830843605</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>3.481777442261237</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>37.87186229520569</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.8100533469056</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.023709124811703</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>251.8824714373463</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>83.94666207849335</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>55.31717029709987</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>79.19447250981592</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>109.0404882242282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754915</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229274</v>
+        <v>19.91555826189507</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>74.56474874233818</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.45282559760403</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>240.6916079404334</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.72279572932656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>235.2417404045067</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>168.9775297124196</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>130.7812597870354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>104.7950049175951</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>159.4039304881677</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>6.600826611593575</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>156.8624097380497</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
-        <v>221.2030256723189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148102</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148102</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>315.4971313776558</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>302.2669968018396</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>112.8472117853546</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>482.822241409741</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="U2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="Y2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268593</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.6344209122192</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>422.6344209122192</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>422.6344209122192</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264286</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264286</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099437</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="V3" t="n">
-        <v>422.6344209122192</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="W3" t="n">
-        <v>422.6344209122192</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>422.6344209122192</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>422.6344209122192</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230183</v>
@@ -4510,28 +4510,28 @@
         <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.9196022518695</v>
+        <v>841.6085069816318</v>
       </c>
       <c r="C5" t="n">
-        <v>457.9196022518695</v>
+        <v>841.6085069816318</v>
       </c>
       <c r="D5" t="n">
-        <v>457.9196022518695</v>
+        <v>483.3428083748813</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518695</v>
+        <v>365.2228912129541</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226192</v>
+        <v>358.2773904637506</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675749</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901721</v>
+        <v>111.6705539017228</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746956</v>
+        <v>277.9807166747001</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030727</v>
+        <v>521.2049416030802</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570913</v>
+        <v>823.5081935709239</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582746</v>
+        <v>1135.31683658276</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079232</v>
+        <v>1416.413635079249</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332749</v>
+        <v>1621.822248332769</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837874</v>
+        <v>1727.902815837896</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540642</v>
+        <v>1703.718566540666</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.81072630099</v>
+        <v>1562.810726301014</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437426</v>
+        <v>1562.810726301014</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.31342710879</v>
+        <v>1562.810726301014</v>
       </c>
       <c r="V5" t="n">
-        <v>831.3853605129493</v>
+        <v>1231.747838957443</v>
       </c>
       <c r="W5" t="n">
-        <v>831.3853605129493</v>
+        <v>1231.747838957443</v>
       </c>
       <c r="X5" t="n">
-        <v>457.9196022518695</v>
+        <v>1231.747838957443</v>
       </c>
       <c r="Y5" t="n">
-        <v>457.9196022518695</v>
+        <v>841.6085069816318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659.4013151673057</v>
+        <v>193.7955113222134</v>
       </c>
       <c r="C6" t="n">
-        <v>484.9482858861787</v>
+        <v>193.7955113222134</v>
       </c>
       <c r="D6" t="n">
-        <v>336.0138762249275</v>
+        <v>193.7955113222134</v>
       </c>
       <c r="E6" t="n">
-        <v>336.0138762249275</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="F6" t="n">
-        <v>189.4793182518124</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814668</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478747</v>
+        <v>61.6678846478761</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980605</v>
+        <v>186.157723980608</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189956</v>
+        <v>399.8722171190009</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223467</v>
+        <v>668.6238185223547</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352435</v>
+        <v>958.897120035254</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228313</v>
+        <v>1202.220686228326</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639502</v>
+        <v>1378.176233639517</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906542</v>
+        <v>1445.878660906558</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703766</v>
+        <v>1401.100270703783</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699362</v>
+        <v>1258.309378699379</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419116</v>
+        <v>1062.768760419134</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419116</v>
+        <v>1062.768760419134</v>
       </c>
       <c r="V6" t="n">
-        <v>827.6166521873738</v>
+        <v>827.6166521873909</v>
       </c>
       <c r="W6" t="n">
-        <v>827.6166521873738</v>
+        <v>573.3792954591893</v>
       </c>
       <c r="X6" t="n">
-        <v>827.6166521873738</v>
+        <v>365.5277952536564</v>
       </c>
       <c r="Y6" t="n">
-        <v>827.6166521873738</v>
+        <v>362.0108483422815</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857972</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5646432270036</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="D7" t="n">
-        <v>181.4480038146679</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146679</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574629</v>
+        <v>64.24066662574771</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584104</v>
+        <v>132.129986158413</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347954</v>
+        <v>206.9680378347995</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195343</v>
+        <v>287.8841338195397</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934689</v>
+        <v>342.3101561934754</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857972</v>
+        <v>369.8190495858047</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857972</v>
+        <v>369.8190495858047</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857972</v>
+        <v>369.8190495858047</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857972</v>
+        <v>369.8190495858047</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857972</v>
+        <v>145.4773021217131</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857972</v>
+        <v>145.4773021217131</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857972</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857972</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857972</v>
+        <v>34.55805631675793</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857972</v>
+        <v>34.55805631675793</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.2209934405464</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="C8" t="n">
-        <v>141.2584765001347</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>141.2584765001347</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2584765001347</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
         <v>122.3223344947425</v>
@@ -4802,19 +4802,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="V8" t="n">
-        <v>1660.42592374156</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="W8" t="n">
-        <v>1660.42592374156</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="X8" t="n">
-        <v>1286.96016548048</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="Y8" t="n">
-        <v>896.8208335046681</v>
+        <v>1289.352831745533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5487332243426</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="C9" t="n">
-        <v>546.0957039432157</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="D9" t="n">
-        <v>397.1612942819644</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="E9" t="n">
-        <v>397.1612942819644</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4908,25 +4908,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1539.52797744664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1539.52797744664</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1304.375869214897</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1304.375869214897</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1096.524369009365</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>888.7640702444107</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
         <v>43.36919653809306</v>
@@ -4963,7 +4963,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4987,25 +4987,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>440.2949303640173</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>440.2949303640173</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U10" t="n">
-        <v>440.2949303640173</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V10" t="n">
-        <v>440.2949303640173</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>440.2949303640173</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5042,10 +5042,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>2233.355914590558</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>2830.73440221711</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>3458.332365771717</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>4010.242096011004</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>4433.865245506072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>4667.126905880954</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380908</v>
+        <v>695.5020655703155</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380908</v>
+        <v>695.5020655703155</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>545.3854261579797</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755866</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611861</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683306</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536341</v>
+        <v>580.8993044876734</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257272</v>
+        <v>411.9631215597665</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133914</v>
+        <v>261.8464821474307</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098309984</v>
+        <v>113.9333885650376</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038388</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797789</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V16" t="n">
-        <v>1613.067925832142</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W16" t="n">
-        <v>1323.650755795182</v>
+        <v>1211.329899359461</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.661204897164</v>
+        <v>983.3403484614432</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536341</v>
+        <v>762.5477693179131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,16 +5540,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5704,19 +5704,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1801.383947954638</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1546.699459748751</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.28228971179</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1029.292738813773</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967227</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>551.263652184387</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1517.813638001792</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.396467964831</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1000.406917066814</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232838</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6309,16 +6309,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
         <v>317.6151975578602</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,25 +6956,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1050.315828159287</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1889.844516861991</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2105.661370711882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>39.57498479398417</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538209</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610362</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>177.5728945814898</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532721</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>45.4928664488107</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>16.89590291932126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>12.04875628922503</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>121.3563835367926</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>181.7279934189959</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>66.30572490086948</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>211.9838267405012</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>60.54304058923859</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
-        <v>4.506629716718265</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398212</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675042</v>
@@ -26347,10 +26347,10 @@
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26366,10 +26366,10 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253094</v>
+        <v>270592.3620253155</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231956</v>
+        <v>115410.0540231898</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742652</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854464</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881905</v>
+        <v>62913.63765882047</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197552</v>
+        <v>27875.25362197408</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926347</v>
+        <v>206604.4229263453</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189202</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
         <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="L4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>16046.58397189199</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936797</v>
+        <v>76435.73471936843</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683766</v>
+        <v>-311097.9403683768</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718821</v>
+        <v>62148.80772718307</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302467</v>
+        <v>240969.2014302523</v>
       </c>
       <c r="E6" t="n">
-        <v>-113252.3716025599</v>
+        <v>-113287.1095279957</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462697</v>
       </c>
       <c r="G6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462696</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462697</v>
       </c>
       <c r="I6" t="n">
-        <v>488190.835971705</v>
+        <v>488156.0980462695</v>
       </c>
       <c r="J6" t="n">
-        <v>439125.8912431605</v>
+        <v>439091.1533177247</v>
       </c>
       <c r="K6" t="n">
-        <v>425277.1983128859</v>
+        <v>425242.460387449</v>
       </c>
       <c r="L6" t="n">
-        <v>460315.5823497295</v>
+        <v>460280.8444242954</v>
       </c>
       <c r="M6" t="n">
-        <v>331044.4554201071</v>
+        <v>331009.7174946715</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.835971705</v>
+        <v>488156.0980462695</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462696</v>
       </c>
       <c r="P6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462694</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950594</v>
+        <v>758.8996292950642</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,10 +26790,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594685</v>
+        <v>431.9757039594741</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821546</v>
+        <v>210.4296883821594</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262471</v>
+        <v>94.81103524261994</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931485</v>
+        <v>244.450116793154</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666947</v>
+        <v>110.1392527666892</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931487</v>
+        <v>244.450116793154</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666947</v>
+        <v>110.139252766689</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931485</v>
+        <v>244.450116793154</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666947</v>
+        <v>110.1392527666892</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>28.60460395604619</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988671</v>
+        <v>25.91829388988665</v>
       </c>
       <c r="U2" t="n">
-        <v>183.0523213773689</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409147</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
-        <v>168.5658214686781</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.3002871593218</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.21801639213452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27582,7 @@
         <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625573</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>264.9916520819539</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714736</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760075</v>
+        <v>92.85788772760002</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>64.48347254025293</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.130346903312</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246125</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937496</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>202.2009183350431</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>129.3749588034221</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836598</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.2957212599128</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304076</v>
+        <v>30.24193919304015</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589187</v>
+        <v>36.91115760589115</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166226</v>
+        <v>115.7603165166222</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.3275899769224</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>204.0485487447922</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>75.86978703278859</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>61.12255031489053</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.18364296475527</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,22 +28059,22 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>117.9932182497999</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>1.354513060649737</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>4.50679322213922e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.179333311515025e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.876109364510144e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.50679322213922e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.012707159510495e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-2.252071459007168e-13</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085664</v>
+        <v>3.050852781085683</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429356</v>
+        <v>31.24454604429376</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428052</v>
+        <v>117.6180018428059</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286696</v>
+        <v>258.9373162286712</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520258</v>
+        <v>388.0799144520282</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511763</v>
+        <v>481.4474502511793</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968084</v>
+        <v>535.7030533968118</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610681</v>
+        <v>544.3712888610715</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191475</v>
+        <v>514.0343715191508</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860951</v>
+        <v>438.7164434860979</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634647</v>
+        <v>329.4577782634668</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098725</v>
+        <v>191.6431310098737</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898963</v>
+        <v>69.52130774899007</v>
       </c>
       <c r="T5" t="n">
-        <v>13.3551080492025</v>
+        <v>13.35510804920258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486853</v>
+        <v>0.2440682224868546</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030882</v>
+        <v>1.632350146030893</v>
       </c>
       <c r="H6" t="n">
-        <v>15.7650658840351</v>
+        <v>15.7650658840352</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062469</v>
+        <v>56.20152915062504</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475932</v>
+        <v>154.2212916475941</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316623</v>
+        <v>263.588751431664</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172188</v>
+        <v>354.4276051721902</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658073</v>
+        <v>413.6002979658099</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468654</v>
+        <v>424.5470671468681</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374442</v>
+        <v>388.3776244374467</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872481</v>
+        <v>311.7072835872501</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547492</v>
+        <v>208.3680642547505</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632157</v>
+        <v>101.3488976632163</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947712</v>
+        <v>30.32018801947731</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378862</v>
+        <v>6.579516597378904</v>
       </c>
       <c r="U6" t="n">
-        <v>0.107391456975716</v>
+        <v>0.1073914569757167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236992</v>
+        <v>1.368507528237001</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377981</v>
+        <v>12.16727602377989</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673452</v>
+        <v>41.15475366734545</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635535</v>
+        <v>96.75348224635596</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260796</v>
+        <v>158.9956928260806</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162525</v>
+        <v>203.4597465162538</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399132</v>
+        <v>214.5197755399146</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528482</v>
+        <v>209.4189747528496</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275342</v>
+        <v>193.4323186275354</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514994</v>
+        <v>165.5147650515005</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.593844023554</v>
+        <v>114.5938440235547</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054693</v>
+        <v>61.53307486054732</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391194</v>
+        <v>23.84935392391209</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830783</v>
+        <v>5.84725943883082</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0746458651765633</v>
+        <v>0.07464586517656377</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>169.6252075171352</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>572.868299221487</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>729.0844763571695</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33029,10 +33029,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>604.245822599193</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,22 +33740,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>630.8026878560996</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>344.9857809048118</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198332</v>
+        <v>77.89141170198491</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070452</v>
+        <v>167.9900634070477</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811891</v>
+        <v>245.6810352811921</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695357</v>
+        <v>305.3568201695391</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644772</v>
+        <v>314.9582252644806</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974607</v>
+        <v>283.936160097464</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308256</v>
+        <v>207.4834477308283</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890152</v>
+        <v>107.1520883890173</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092648</v>
+        <v>27.38366498092745</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573033</v>
+        <v>125.747312457305</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923138</v>
+        <v>215.873225392316</v>
       </c>
       <c r="M6" t="n">
-        <v>271.466264043789</v>
+        <v>271.4662640437916</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635321</v>
+        <v>293.2053550635347</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799929998</v>
+        <v>245.7813799930022</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729179</v>
+        <v>177.7328761729198</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872764</v>
+        <v>68.38629016872895</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554424</v>
+        <v>29.98243465554523</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501421</v>
+        <v>68.57507023501549</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230816</v>
+        <v>75.59399159230952</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761505</v>
+        <v>81.73343028761636</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569143</v>
+        <v>54.97578017569265</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235182</v>
+        <v>27.78676100235285</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>23.94570355317127</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999029</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>430.2720547770426</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096395</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>586.9504424351511</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36677,10 +36677,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>472.9041105158597</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295242</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>488.6686539340813</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
